--- a/DevOps_Trainee.xlsx
+++ b/DevOps_Trainee.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suyash\DevOps\Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Work\DevOps\Repo1\CG_DevOps_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94878470-8EDD-4D69-A8CB-9255FA7C232B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9140" windowHeight="2180"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>DevOps Trainee</t>
   </si>
@@ -51,12 +52,21 @@
   </si>
   <si>
     <t>Group-C</t>
+  </si>
+  <si>
+    <t>Dinesh Patil</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>IBM, EMC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,10 +688,18 @@
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>46176</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C14" s="2" t="s">

--- a/DevOps_Trainee.xlsx
+++ b/DevOps_Trainee.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suyash\DevOps\Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abvaishn\Documents\Github\Local_Repo\CG_DevOps_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>DevOps Trainee</t>
   </si>
@@ -51,12 +51,21 @@
   </si>
   <si>
     <t>Group-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhinav vaishnav </t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>powershell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,10 +562,14 @@
   <dimension ref="C1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G2" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="9" t="s">
@@ -588,10 +601,18 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>139321</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">

--- a/DevOps_Trainee.xlsx
+++ b/DevOps_Trainee.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abvaishn\Documents\Github\Local_Repo\CG_DevOps_Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkhilare\GITdemo\pkhilare\CG_DevOps_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9140" windowHeight="2180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9135" windowHeight="2175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>DevOps Trainee</t>
   </si>
@@ -60,12 +60,21 @@
   </si>
   <si>
     <t>powershell</t>
+  </si>
+  <si>
+    <t>Pawan Khilare</t>
+  </si>
+  <si>
+    <t>UNIX</t>
+  </si>
+  <si>
+    <t>Linux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,16 +571,16 @@
   <dimension ref="C1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -580,7 +589,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -597,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
@@ -614,16 +623,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>86166</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -632,7 +649,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
@@ -641,7 +658,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -650,7 +667,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -659,7 +676,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -668,7 +685,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
@@ -677,7 +694,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -686,7 +703,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
@@ -695,7 +712,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
@@ -704,7 +721,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
@@ -713,7 +730,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -722,7 +739,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
@@ -731,7 +748,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>

--- a/DevOps_Trainee.xlsx
+++ b/DevOps_Trainee.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkhilare\GITdemo\pkhilare\CG_DevOps_Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project1\CG_DevOps_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9135" windowHeight="2175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9140" windowHeight="2180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>DevOps Trainee</t>
   </si>
@@ -69,12 +69,21 @@
   </si>
   <si>
     <t>Linux</t>
+  </si>
+  <si>
+    <t>Suryanarayan B Iyer</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Active Directory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,16 +580,16 @@
   <dimension ref="C1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -589,7 +598,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -606,7 +615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
@@ -623,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -640,16 +649,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>117582</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
@@ -658,7 +675,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -667,7 +684,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -676,7 +693,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -685,7 +702,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
@@ -694,7 +711,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -703,7 +720,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
@@ -712,7 +729,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
@@ -721,7 +738,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
@@ -730,7 +747,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -739,7 +756,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
@@ -748,7 +765,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>

--- a/DevOps_Trainee.xlsx
+++ b/DevOps_Trainee.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project1\CG_DevOps_Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obairise\Project\CG_DevOps_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9140" windowHeight="2180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9144" windowHeight="2184"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>DevOps Trainee</t>
   </si>
@@ -78,12 +78,18 @@
   </si>
   <si>
     <t>Active Directory</t>
+  </si>
+  <si>
+    <t>Omkar B</t>
+  </si>
+  <si>
+    <t>Linux,HPUX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,16 +586,16 @@
   <dimension ref="C1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -598,7 +604,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -615,7 +621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
@@ -632,7 +638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -649,7 +655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -666,16 +672,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>148919</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -684,7 +698,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -693,7 +707,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -702,7 +716,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
@@ -711,7 +725,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -720,7 +734,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
@@ -729,7 +743,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
@@ -738,7 +752,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
@@ -747,7 +761,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -756,7 +770,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
@@ -765,7 +779,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>

--- a/DevOps_Trainee.xlsx
+++ b/DevOps_Trainee.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suyash\DevOps\Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panparab\CG_DevOps_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8870D3F5-65D4-412C-B9CD-5CD77F15DAFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9140" windowHeight="2180"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>DevOps Trainee</t>
   </si>
@@ -51,12 +52,36 @@
   </si>
   <si>
     <t>Group-C</t>
+  </si>
+  <si>
+    <t>pankaj</t>
+  </si>
+  <si>
+    <t>suraj</t>
+  </si>
+  <si>
+    <t>vaibhav</t>
+  </si>
+  <si>
+    <t>cyril</t>
+  </si>
+  <si>
+    <t>chetan</t>
+  </si>
+  <si>
+    <t>unix</t>
+  </si>
+  <si>
+    <t>wintel</t>
+  </si>
+  <si>
+    <t>automation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,14 +574,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="9" t="s">
@@ -633,46 +661,76 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3">
+        <v>13309</v>
+      </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3">
+        <v>13310</v>
+      </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>13312</v>
+      </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
+        <v>13313</v>
+      </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13314</v>
+      </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C13" s="2" t="s">

--- a/DevOps_Trainee.xlsx
+++ b/DevOps_Trainee.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suyash\DevOps\Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Pravin\CG_DevOps_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC1E0DA-DE54-4A26-97E3-38A50237C561}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9140" windowHeight="2180"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>DevOps Trainee</t>
   </si>
@@ -51,12 +52,21 @@
   </si>
   <si>
     <t>Group-C</t>
+  </si>
+  <si>
+    <t>Pravin</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>NW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,10 +688,18 @@
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>49793</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C14" s="2" t="s">

--- a/DevOps_Trainee.xlsx
+++ b/DevOps_Trainee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obairise\Project\CG_DevOps_Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jychandr\demo\CG_DevOps_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>DevOps Trainee</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Linux,HPUX</t>
+  </si>
+  <si>
+    <t>Jyoti Chandrawat</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>PHP</t>
   </si>
 </sst>
 </file>
@@ -586,7 +595,7 @@
   <dimension ref="C1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,10 +702,18 @@
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>83321</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">

--- a/DevOps_Trainee.xlsx
+++ b/DevOps_Trainee.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Work\DevOps\Repo1\CG_DevOps_Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suyash\DevOps\Lab\local_repository\CG_DevOps_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A60D17E-0DEB-49EB-AE89-C86134447912}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>DevOps Trainee</t>
   </si>
@@ -64,12 +63,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Suyash</t>
+  </si>
+  <si>
+    <t>NetApp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,11 +567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,10 +713,18 @@
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="3"/>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1">
+        <v>92534</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" t="s">

--- a/DevOps_Trainee.xlsx
+++ b/DevOps_Trainee.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suyash\DevOps\Lab\local_repository\CG_DevOps_Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Pravin\CG_DevOps_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4BAFA3-5C36-48D0-B2F3-ED9031EA261B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>DevOps Trainee</t>
   </si>
@@ -69,12 +70,21 @@
   </si>
   <si>
     <t>NetApp</t>
+  </si>
+  <si>
+    <t>Pravin</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Engineering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,11 +577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,10 +743,18 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <v>49793</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C16" s="2" t="s">
